--- a/SchedulingData/dynamic15/pso/scheduling2_2.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200.74</v>
+        <v>232.06</v>
       </c>
       <c r="D2" t="n">
-        <v>267.4</v>
+        <v>299.04</v>
       </c>
       <c r="E2" t="n">
-        <v>13.92</v>
+        <v>13.176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>217.38</v>
+        <v>299.04</v>
       </c>
       <c r="D3" t="n">
-        <v>301.28</v>
+        <v>341.28</v>
       </c>
       <c r="E3" t="n">
-        <v>11.532</v>
+        <v>9.592000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>301.28</v>
+        <v>225.16</v>
       </c>
       <c r="D4" t="n">
-        <v>366.16</v>
+        <v>269.06</v>
       </c>
       <c r="E4" t="n">
-        <v>7.164</v>
+        <v>14.224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>366.16</v>
+        <v>217</v>
       </c>
       <c r="D5" t="n">
-        <v>446.06</v>
+        <v>255.52</v>
       </c>
       <c r="E5" t="n">
-        <v>2.304</v>
+        <v>14.088</v>
       </c>
     </row>
     <row r="6">
@@ -542,74 +542,74 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>267.4</v>
+        <v>269.06</v>
       </c>
       <c r="D6" t="n">
-        <v>325.52</v>
+        <v>334.06</v>
       </c>
       <c r="E6" t="n">
-        <v>10.708</v>
+        <v>9.364000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204.58</v>
+        <v>334.06</v>
       </c>
       <c r="D7" t="n">
-        <v>267.9</v>
+        <v>402.56</v>
       </c>
       <c r="E7" t="n">
-        <v>14.76</v>
+        <v>4.144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>325.52</v>
+        <v>255.52</v>
       </c>
       <c r="D8" t="n">
-        <v>401.28</v>
+        <v>318.74</v>
       </c>
       <c r="E8" t="n">
-        <v>7.732</v>
+        <v>9.875999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>208.1</v>
+        <v>242.16</v>
       </c>
       <c r="D9" t="n">
-        <v>256.02</v>
+        <v>308.32</v>
       </c>
       <c r="E9" t="n">
-        <v>12.428</v>
+        <v>11.368</v>
       </c>
     </row>
     <row r="10">
@@ -618,250 +618,250 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>243.5</v>
+        <v>318.74</v>
       </c>
       <c r="D10" t="n">
-        <v>314.36</v>
+        <v>391.62</v>
       </c>
       <c r="E10" t="n">
-        <v>13.184</v>
+        <v>6.228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>267.9</v>
+        <v>391.62</v>
       </c>
       <c r="D11" t="n">
-        <v>331.76</v>
+        <v>456.82</v>
       </c>
       <c r="E11" t="n">
-        <v>10.504</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>314.36</v>
+        <v>240.22</v>
       </c>
       <c r="D12" t="n">
-        <v>368.4</v>
+        <v>294.64</v>
       </c>
       <c r="E12" t="n">
-        <v>8.92</v>
+        <v>12.536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>446.06</v>
+        <v>402.56</v>
       </c>
       <c r="D13" t="n">
-        <v>523.35</v>
+        <v>452.26</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>523.35</v>
+        <v>452.26</v>
       </c>
       <c r="D14" t="n">
-        <v>585.4299999999999</v>
+        <v>536.39</v>
       </c>
       <c r="E14" t="n">
-        <v>26.472</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>331.76</v>
+        <v>294.64</v>
       </c>
       <c r="D15" t="n">
-        <v>388.48</v>
+        <v>376.54</v>
       </c>
       <c r="E15" t="n">
-        <v>6.472</v>
+        <v>7.436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>256.02</v>
+        <v>308.32</v>
       </c>
       <c r="D16" t="n">
-        <v>313.9</v>
+        <v>372.9</v>
       </c>
       <c r="E16" t="n">
-        <v>9.26</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>313.9</v>
+        <v>456.82</v>
       </c>
       <c r="D17" t="n">
-        <v>384.86</v>
+        <v>495.56</v>
       </c>
       <c r="E17" t="n">
-        <v>5.284</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>401.28</v>
+        <v>495.56</v>
       </c>
       <c r="D18" t="n">
-        <v>470.1</v>
+        <v>571.15</v>
       </c>
       <c r="E18" t="n">
-        <v>3.94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>268.12</v>
+        <v>571.15</v>
       </c>
       <c r="D19" t="n">
-        <v>315.82</v>
+        <v>644.05</v>
       </c>
       <c r="E19" t="n">
-        <v>11.508</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>368.4</v>
+        <v>341.28</v>
       </c>
       <c r="D20" t="n">
-        <v>432.26</v>
+        <v>373.12</v>
       </c>
       <c r="E20" t="n">
-        <v>5.644</v>
+        <v>7.048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>432.26</v>
+        <v>372.9</v>
       </c>
       <c r="D21" t="n">
-        <v>485.08</v>
+        <v>429.04</v>
       </c>
       <c r="E21" t="n">
-        <v>2.472</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>384.86</v>
+        <v>429.04</v>
       </c>
       <c r="D22" t="n">
-        <v>421.6</v>
+        <v>494.84</v>
       </c>
       <c r="E22" t="n">
-        <v>2.74</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>421.6</v>
+        <v>494.84</v>
       </c>
       <c r="D23" t="n">
-        <v>517.52</v>
+        <v>571.53</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -880,40 +880,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>517.52</v>
+        <v>536.39</v>
       </c>
       <c r="D24" t="n">
-        <v>583.02</v>
+        <v>598.47</v>
       </c>
       <c r="E24" t="n">
-        <v>26.62</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>585.4299999999999</v>
+        <v>230.26</v>
       </c>
       <c r="D25" t="n">
-        <v>639.89</v>
+        <v>295.04</v>
       </c>
       <c r="E25" t="n">
-        <v>23.656</v>
+        <v>13.076</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>583.02</v>
+        <v>373.12</v>
       </c>
       <c r="D26" t="n">
-        <v>623.96</v>
+        <v>425.92</v>
       </c>
       <c r="E26" t="n">
-        <v>23.656</v>
+        <v>3.408</v>
       </c>
     </row>
     <row r="27">
@@ -941,55 +941,55 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>470.1</v>
+        <v>598.47</v>
       </c>
       <c r="D27" t="n">
-        <v>549.22</v>
+        <v>656.39</v>
       </c>
       <c r="E27" t="n">
-        <v>1.608</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>549.22</v>
+        <v>571.53</v>
       </c>
       <c r="D28" t="n">
-        <v>622.9</v>
+        <v>627.95</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>388.48</v>
+        <v>644.05</v>
       </c>
       <c r="D29" t="n">
-        <v>440.66</v>
+        <v>691.97</v>
       </c>
       <c r="E29" t="n">
-        <v>2.384</v>
+        <v>24.668</v>
       </c>
     </row>
     <row r="30">
@@ -998,112 +998,112 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>315.82</v>
+        <v>295.04</v>
       </c>
       <c r="D30" t="n">
-        <v>363.82</v>
+        <v>341.8</v>
       </c>
       <c r="E30" t="n">
-        <v>9.348000000000001</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>622.9</v>
+        <v>341.8</v>
       </c>
       <c r="D31" t="n">
-        <v>660.58</v>
+        <v>406.38</v>
       </c>
       <c r="E31" t="n">
-        <v>26.932</v>
+        <v>5.692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>623.96</v>
+        <v>406.38</v>
       </c>
       <c r="D32" t="n">
-        <v>678.6799999999999</v>
+        <v>460.18</v>
       </c>
       <c r="E32" t="n">
-        <v>21.324</v>
+        <v>1.952</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>660.58</v>
+        <v>460.18</v>
       </c>
       <c r="D33" t="n">
-        <v>699.6799999999999</v>
+        <v>547.78</v>
       </c>
       <c r="E33" t="n">
-        <v>24.652</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>485.08</v>
+        <v>376.54</v>
       </c>
       <c r="D34" t="n">
-        <v>547.14</v>
+        <v>435.66</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>5.104</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>547.14</v>
+        <v>627.95</v>
       </c>
       <c r="D35" t="n">
-        <v>600.4</v>
+        <v>672.5700000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>26.864</v>
+        <v>24.196</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>678.6799999999999</v>
+        <v>425.92</v>
       </c>
       <c r="D36" t="n">
-        <v>741.38</v>
+        <v>492.4</v>
       </c>
       <c r="E36" t="n">
-        <v>19.164</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>639.89</v>
+        <v>492.4</v>
       </c>
       <c r="D37" t="n">
-        <v>673.63</v>
+        <v>558.72</v>
       </c>
       <c r="E37" t="n">
-        <v>21.412</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>440.66</v>
+        <v>435.66</v>
       </c>
       <c r="D38" t="n">
-        <v>532.39</v>
+        <v>485.18</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>532.39</v>
+        <v>485.18</v>
       </c>
       <c r="D39" t="n">
-        <v>603.33</v>
+        <v>565.5</v>
       </c>
       <c r="E39" t="n">
-        <v>27.036</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>600.4</v>
+        <v>547.78</v>
       </c>
       <c r="D40" t="n">
-        <v>673.3</v>
+        <v>633.9400000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>22.664</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>603.33</v>
+        <v>565.5</v>
       </c>
       <c r="D41" t="n">
-        <v>662.9299999999999</v>
+        <v>636.4400000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>24.176</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>363.82</v>
+        <v>633.9400000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>437.84</v>
+        <v>713.9400000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>5.036</v>
+        <v>23.104</v>
       </c>
     </row>
     <row r="43">
@@ -1245,79 +1245,79 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>699.6799999999999</v>
+        <v>656.39</v>
       </c>
       <c r="D43" t="n">
-        <v>749.28</v>
+        <v>704.05</v>
       </c>
       <c r="E43" t="n">
-        <v>22.292</v>
+        <v>20.164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>437.84</v>
+        <v>558.72</v>
       </c>
       <c r="D44" t="n">
-        <v>498.84</v>
+        <v>641.42</v>
       </c>
       <c r="E44" t="n">
-        <v>1.076</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>498.84</v>
+        <v>641.42</v>
       </c>
       <c r="D45" t="n">
-        <v>578.49</v>
+        <v>679.42</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>741.38</v>
+        <v>672.5700000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>787.34</v>
+        <v>733.61</v>
       </c>
       <c r="E46" t="n">
-        <v>16.188</v>
+        <v>21.232</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1325,51 +1325,32 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>662.9299999999999</v>
+        <v>636.4400000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>740.83</v>
+        <v>723.9400000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>20.996</v>
+        <v>23.856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>749.28</v>
+        <v>713.9400000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>796.98</v>
+        <v>769.9</v>
       </c>
       <c r="E48" t="n">
-        <v>18.652</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>pond32</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>673.63</v>
-      </c>
-      <c r="D49" t="n">
-        <v>724.03</v>
-      </c>
-      <c r="E49" t="n">
-        <v>17.992</v>
+        <v>20.128</v>
       </c>
     </row>
   </sheetData>
